--- a/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
+++ b/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Desktop/Work/Clarusway/Developer Project/SnappCar App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896CE994-F306-E443-B23D-94D2954BF409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA449FE-0708-944C-BB93-B27175B418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33800" yWindow="-880" windowWidth="28800" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
+    <workbookView xWindow="-33800" yWindow="-880" windowWidth="33000" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Issue</t>
   </si>
@@ -139,9 +138,6 @@
   </si>
   <si>
     <t>Vehicle owner can lookup on Accounts only if the account is a vehicle owner</t>
-  </si>
-  <si>
-    <t>Create a Account record type for Vehicle owners and Stakeholders</t>
   </si>
   <si>
     <t>Create a Account record type and page layout for Vehicle owners and Stakeholders</t>
@@ -779,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFDF625-2CB1-5D4F-934D-A87F7034497E}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,8 +827,12 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
@@ -844,8 +844,12 @@
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
@@ -857,8 +861,12 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
@@ -870,8 +878,12 @@
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
@@ -883,8 +895,12 @@
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
@@ -896,8 +912,12 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
@@ -907,12 +927,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,10 +946,14 @@
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -933,12 +961,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -948,10 +980,14 @@
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,8 +997,12 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
@@ -974,8 +1014,12 @@
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1014,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1025,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1054,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1065,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1076,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1087,12 +1131,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1111,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1122,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1133,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1146,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1157,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1168,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1179,7 +1223,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1190,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1201,29 +1245,29 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1234,18 +1278,18 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1267,29 +1311,29 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1298,18 +1342,18 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1320,7 +1364,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1329,7 +1373,7 @@
     <row r="49" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -1340,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1351,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1386,27 +1430,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F564FC1-CB9A-8E48-8D57-E7687E5092B8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
+++ b/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Desktop/Work/Clarusway/Developer Project/SnappCar App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA449FE-0708-944C-BB93-B27175B418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CA122-5BF4-6F49-ABB5-630C9EEFEFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33800" yWindow="-880" windowWidth="33000" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Issue</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Create both record type and page layouts and assign </t>
   </si>
   <si>
-    <t>Automatically update Last Odometer reading and Odometer status  of Vehicle records based on last created Vehicle Renting  record</t>
-  </si>
-  <si>
     <t>Automatically update inUse field to set "true" if vehicle assigned to keyless records</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>Create a experience micro-site and pages for P2P Car Rental App</t>
+  </si>
+  <si>
+    <t>Automatically update Last Odometer reading, -date of Vehicle records based on last created Vehicle Renting  record</t>
+  </si>
+  <si>
+    <t>Consider add additional relationship and you may need to use validation rule to ensure correct vehicle record will be updated</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -970,7 +973,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,7 +990,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1058,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1069,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1098,18 +1101,24 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1120,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1131,12 +1140,12 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1155,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1166,7 +1175,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1177,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1190,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1201,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1212,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1223,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1234,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1245,29 +1254,29 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1278,18 +1287,18 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1311,29 +1320,29 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1342,18 +1351,18 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1364,7 +1373,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1373,7 +1382,7 @@
     <row r="49" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -1384,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1395,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>

--- a/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
+++ b/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Desktop/Work/Clarusway/Developer Project/SnappCar App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CA122-5BF4-6F49-ABB5-630C9EEFEFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0CAF80-9AA8-0442-9278-496E023666F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Issue</t>
   </si>
@@ -164,9 +164,6 @@
     <t>If current date is between start date and end date, set true; if not set false</t>
   </si>
   <si>
-    <t>If Vehicle Owner opt-in for Smart price, set smart price field true and price field will be unavailable automatically</t>
-  </si>
-  <si>
     <t>Calculate renting amount automatically for Vehicle renting records based on the prices on rental listing</t>
   </si>
   <si>
@@ -266,10 +263,22 @@
     <t>Create a experience micro-site and pages for P2P Car Rental App</t>
   </si>
   <si>
-    <t>Automatically update Last Odometer reading, -date of Vehicle records based on last created Vehicle Renting  record</t>
-  </si>
-  <si>
-    <t>Consider add additional relationship and you may need to use validation rule to ensure correct vehicle record will be updated</t>
+    <t>Consider add additional relationship and you may need to  ensure correct vehicle record will be updated Hint: Trigger and Validation Rule</t>
+  </si>
+  <si>
+    <t>Update InUse after creation and update (cover both scenario: Add vehicle or remove vehicle) Hint: Trigger</t>
+  </si>
+  <si>
+    <t>Follow best practices for finding a solution. Coding or Point and click tools?</t>
+  </si>
+  <si>
+    <t>Automatically update Last Odometer reading,  Odometer Reading date of Vehicle records based on last created Vehicle Renting  record</t>
+  </si>
+  <si>
+    <t>If Vehicle Owner opt-in for Smart price, set Is smart price field true and price field will be unavailable automatically on Rental Listing</t>
+  </si>
+  <si>
+    <t>Hint: Trigger for is Smart Price  and validation for price field</t>
   </si>
 </sst>
 </file>
@@ -778,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFDF625-2CB1-5D4F-934D-A87F7034497E}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -973,7 +982,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -990,7 +999,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1061,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1072,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1101,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -1110,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1120,9 +1129,15 @@
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -1131,9 +1146,15 @@
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -1142,8 +1163,12 @@
       <c r="B27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1153,18 +1178,24 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1175,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1186,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1199,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1210,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1221,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1232,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1243,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1254,23 +1285,23 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1287,18 +1318,18 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1320,29 +1351,29 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1351,18 +1382,18 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1373,7 +1404,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1382,7 +1413,7 @@
     <row r="49" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -1393,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1404,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>

--- a/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
+++ b/SnappCarr-P2P-CarRental-App-Issues-Triforcia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Desktop/Work/Clarusway/Developer Project/SnappCar App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FE37B-64D9-8846-925F-C0D98D424C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923E9D9-B985-B84A-A559-229F8A33A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>Issue</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Please refer the powerpoint presentation, Fill all description and help texts</t>
   </si>
   <si>
-    <t xml:space="preserve">Records can not be created if Name and Email or Phone </t>
-  </si>
-  <si>
     <t>Automation</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>For Triggers and Apex Classes. Please refer the powerpoint presentation</t>
   </si>
   <si>
-    <t>Only show are today or in the future will be available, Create the class, do not connect with external system</t>
-  </si>
-  <si>
     <t>Integration</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>Optional</t>
   </si>
   <si>
-    <t>Please refer the powerpoint presentation for the email template (Hint: check declerative solutions first)</t>
-  </si>
-  <si>
-    <t>Show placeholders of is published=true open house shows on a map, Select Experience Page or App Home Page</t>
-  </si>
-  <si>
     <t>Triforcia July Internship P2P Car Rental App Tasks</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>If current date is between start date and end date, set true; if not set false</t>
   </si>
   <si>
-    <t>Calculate renting amount automatically for Vehicle renting records based on the prices on rental listing</t>
-  </si>
-  <si>
     <t>Show surcharge fee automatically for Vehicle renting records if the Vehicle older than 15 years.</t>
   </si>
   <si>
@@ -173,45 +158,18 @@
     <t>Show young driver fee for renters less than 25 years old for Vehicle renting records</t>
   </si>
   <si>
-    <t>Calculate insurance fee 10% of the renting amount with a minimum of $ 5 automatically for Vehicle renting records</t>
-  </si>
-  <si>
-    <t>Calculate extra mile fee if it is more than allowance on the listing for Vehicle renting records</t>
-  </si>
-  <si>
-    <t>Tax included for all prices, apply long term discount if vehicle owner opt-in</t>
-  </si>
-  <si>
-    <t>Validation rules for Vehicle</t>
-  </si>
-  <si>
-    <t>VIN is required</t>
-  </si>
-  <si>
     <t>Update isKeyless field for Vehicle Renting records if a keyless assigned to the vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">Throw an error for Vehicle renting if Vehicle is not active or rented </t>
-  </si>
-  <si>
-    <t>Contact should be prevented to choose rental listing on Vehicle Renting object(Hint: Trigger)</t>
-  </si>
-  <si>
     <t>Send an email to vehicle owners once their rental listing is created and contacts once their vehicle renting created.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rental Listings shpuld be inactive if end date is older than current date. </t>
-  </si>
-  <si>
     <t>Is active should be automatically false if listing end date is yesterday (at 12 am everyday) Hint: Schedule Apex</t>
   </si>
   <si>
     <t xml:space="preserve">Update Rental Listing Title automatically </t>
   </si>
   <si>
-    <t>Rent + Vehicle Name + (If exist) Daily + (if exist) Hourly : "Rent Tesla Model Y Daily Hourly"</t>
-  </si>
-  <si>
     <t>Deactivate all vehicles and rental listings automatically once Vehicle owner is not active</t>
   </si>
   <si>
@@ -284,38 +242,134 @@
     <t>Consider deleting the renting type field and add again with another field type</t>
   </si>
   <si>
-    <t>Snap Car fee is 20%</t>
-  </si>
-  <si>
-    <t>Calculate by Renting type and Renting duration</t>
-  </si>
-  <si>
-    <t>Young Driver fee is +%25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show One-off verification fee for contacts if their first rent on the platform for Vehicle renting records. </t>
-  </si>
-  <si>
-    <t>One-off verification fee is $15</t>
-  </si>
-  <si>
     <t>Calculate roadside assistance fee  for Vehicle renting records</t>
   </si>
   <si>
-    <t>$2 daily</t>
-  </si>
-  <si>
     <t>Calculate final amount automatically for Vehicle renting records</t>
   </si>
   <si>
-    <t>Surcharge fee is %25</t>
+    <t>Snap Car fee is 20%. Consider deleting the field and add again with another field type.</t>
+  </si>
+  <si>
+    <t>Calculate by Renting type and Renting duration. Consider deleting the field and add again with another field type.</t>
+  </si>
+  <si>
+    <t>Calculate insurance fee  automatically for Vehicle renting records</t>
+  </si>
+  <si>
+    <t>Insurance fee 10% of the renting amount. minimum insurance fee can be less than $ 5. Consider deleting the field and add again with another field type.</t>
+  </si>
+  <si>
+    <t>Surcharge fee is %25. Consider deleting the field and add again with another field type.</t>
+  </si>
+  <si>
+    <t>Young Driver fee is %25. Consider deleting the field and add again with another field type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add One-off verification fee for contacts if their first rent on the platform for Vehicle renting records. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate renting amount automatically for Vehicle renting records </t>
+  </si>
+  <si>
+    <t>One-off verification fee is $15. Consider adding fields on contact and vehicle renting.</t>
+  </si>
+  <si>
+    <t>VIN is required Vehicle</t>
+  </si>
+  <si>
+    <t>Validation or Required field? Discuss and decide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extra mile fee should be $0 if it is less than mile allowance on the rental listing</t>
+  </si>
+  <si>
+    <t>Calculate extra mile fee  for Vehicle renting records</t>
+  </si>
+  <si>
+    <t>$2 daily. For hourly renting, it should be $2 total.</t>
+  </si>
+  <si>
+    <t>Tax included for all fee, apply long term discount 15% if vehicle owner opt-in</t>
+  </si>
+  <si>
+    <t>Records can not be created if Name and Email or Phone  are the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw an error for Vehicle renting if Vehicle is not active or already rented </t>
+  </si>
+  <si>
+    <t>(Hint: Trigger)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please refer the powerpoint presentation for the email template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rental Listings should be inactive if end date is older than current date. </t>
+  </si>
+  <si>
+    <t>Rent + Vehicle Name + Rent Type : for example: "Rent Tesla Model Y Daily "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint: Trigger </t>
+  </si>
+  <si>
+    <t>Use your insipiration to create an experience cloud page</t>
+  </si>
+  <si>
+    <t>Hint: LWC or Flow</t>
+  </si>
+  <si>
+    <t>Design a microsite to satisfy this kind of business. Add components and modules as you like.</t>
+  </si>
+  <si>
+    <t>Only active vehicles will be available, Test the REST Api with Postman</t>
+  </si>
+  <si>
+    <t>Test your integration with sending one document and signed.</t>
+  </si>
+  <si>
+    <t>Test your integration with creating one flow to create an invoice</t>
+  </si>
+  <si>
+    <t>Show placeholders of isActive=true rental listings on a map, Select Experience Page or App Home Page. Add address field for the rental listing object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create 1 sprint for 2 weeks and add target tasks to this sprint. Remaining tasks will be on the backlog. </t>
+  </si>
+  <si>
+    <t>Use Jira indivudally to track tasks</t>
+  </si>
+  <si>
+    <t>Use your GitHub repository and VSCode for the project. Push all metadata to your GitHub repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Devops Center for at least 1 task. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint: Development environment can be scracth org. </t>
+  </si>
+  <si>
+    <t>Create a complete solution package at the end of your project</t>
+  </si>
+  <si>
+    <t>Deploy all metadata to another org using manifest file on workbench at the end of your project</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create solution for task 1 &amp; 2 with using other method (LWC or Flow) </t>
+  </si>
+  <si>
+    <t>If you created the solution with Flow, try to recreate with LWC or vice versa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,21 +410,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -417,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -451,8 +490,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -834,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFDF625-2CB1-5D4F-934D-A87F7034497E}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,7 +891,7 @@
     </row>
     <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -862,24 +899,24 @@
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -903,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -912,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -929,7 +966,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -937,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -946,7 +983,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -963,7 +1000,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -971,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -988,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -997,7 +1034,7 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1014,7 +1051,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1022,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1031,7 +1068,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1039,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1048,7 +1085,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1056,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1065,7 +1102,7 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1073,7 +1110,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -1082,7 +1119,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1092,116 +1129,144 @@
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
+      <c r="A21" s="5">
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
@@ -1212,16 +1277,16 @@
       <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>71</v>
+      <c r="E27" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -1230,350 +1295,549 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5">
+        <v>11</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3"/>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
       <c r="E33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>7</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
       <c r="E38" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>21</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>15</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="4" t="s">
-        <v>49</v>
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
       <c r="E41" s="3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>17</v>
+      <c r="A42" s="6">
+        <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
       <c r="E42" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
       <c r="E43" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5</v>
+      </c>
       <c r="E45" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
       <c r="E48" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C49" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>25</v>
+      <c r="A50" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C50" s="7">
         <v>3</v>
       </c>
       <c r="D50" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>1</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="7">
+        <v>3</v>
+      </c>
+      <c r="D54" s="7">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="7">
+        <v>3</v>
+      </c>
+      <c r="D55" s="7">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="7">
+        <v>3</v>
+      </c>
+      <c r="D56" s="7">
         <v>2</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="7">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="7">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="7">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:E57">
-    <sortCondition ref="A19:A57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:E57">
+    <sortCondition ref="A18:A57"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="C3:C4"/>
